--- a/Shubhangi/Defect_Report.xlsx
+++ b/Shubhangi/Defect_Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>SEVERITY</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">Defect solved </t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Special characters</t>
   </si>
   <si>
@@ -87,6 +84,67 @@
   </si>
   <si>
     <t>Smruti</t>
+  </si>
+  <si>
+    <t>ISWMS Info Time 
+Defect</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ISWMS Date Defect</t>
+  </si>
+  <si>
+    <t>At ISWMS info in add/update form date 
+field accept previous date also it will 
+accept current date and next date.</t>
+  </si>
+  <si>
+    <t>At ISW MS info when we click on update
+then previous date is not visible to user.</t>
+  </si>
+  <si>
+    <t>smruti</t>
+  </si>
+  <si>
+    <t>Solved Date</t>
+  </si>
+  <si>
+    <t>14/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Yes</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now date valid from
+and valid to not accept
+same or less than date
+</t>
+  </si>
+  <si>
+    <t>At ISWMS info in add /update form Expe
+cted start time and expected end time 
+will accept the same time .that time 
+will be different.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>expected start time 
+and end time will not be same and excepted 
+time less than end time.</t>
+  </si>
+  <si>
+    <t>14/1/2010</t>
+  </si>
+  <si>
+    <t>now it will show previous date</t>
   </si>
 </sst>
 </file>
@@ -144,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -160,6 +218,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,23 +531,23 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="9" max="11" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -506,13 +567,19 @@
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="105">
+    <row r="7" spans="1:11" ht="105">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -530,39 +597,147 @@
         <v>8</v>
       </c>
       <c r="H7" s="5">
-        <v>40452</v>
+        <v>44105</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>44105</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="90">
+    <row r="8" spans="1:11" ht="105">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="5">
         <v>44105</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="90">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44136</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44136</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5">
+        <v>44136</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Shubhangi/Defect_Report.xlsx
+++ b/Shubhangi/Defect_Report.xlsx
@@ -144,7 +144,8 @@
     <t>14/1/2010</t>
   </si>
   <si>
-    <t>now it will show previous date</t>
+    <t>now it will show 
+previous date</t>
   </si>
 </sst>
 </file>
@@ -517,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,7 +737,7 @@
       <c r="J11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
